--- a/player_d_dash/defense-dash-overall_SeasonType_Regular_20Season_Season_2019-20.xlsx
+++ b/player_d_dash/defense-dash-overall_SeasonType_Regular_20Season_Season_2019-20.xlsx
@@ -779,17 +779,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Andre Drummond</t>
+          <t>Hassan Whiteside</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>66</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -824,17 +824,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>-2.5</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hassan Whiteside</t>
+          <t>Andre Drummond</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -4614,32 +4614,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Julius Randle</t>
+          <t>Robert Covington</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4659,17 +4659,17 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>1.8</t>
         </is>
       </c>
     </row>
@@ -4679,32 +4679,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Robert Covington</t>
+          <t>Julius Randle</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>64</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4724,17 +4724,17 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>-2.7</t>
         </is>
       </c>
     </row>
@@ -4809,12 +4809,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Buddy Hield</t>
+          <t>Cody Zeller</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4824,17 +4824,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4854,17 +4854,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -4874,12 +4874,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cody Zeller</t>
+          <t>Buddy Hield</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4889,17 +4889,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4919,17 +4919,17 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.7</t>
         </is>
       </c>
     </row>
@@ -5199,17 +5199,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Collin Sexton</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5244,17 +5244,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -5264,17 +5264,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Damian Lillard</t>
+          <t>Collin Sexton</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5299,7 +5299,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5309,17 +5309,17 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>7.4</t>
         </is>
       </c>
     </row>
@@ -6629,32 +6629,32 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Devonte' Graham</t>
+          <t>Wendell Carter Jr.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -6679,12 +6679,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>-2.3</t>
         </is>
       </c>
     </row>
@@ -6694,32 +6694,32 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Wendell Carter Jr.</t>
+          <t>Devonte' Graham</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -6744,12 +6744,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -7019,32 +7019,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -7054,7 +7054,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7064,17 +7064,17 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
@@ -7084,32 +7084,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -7129,17 +7129,17 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -8709,12 +8709,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Victor Oladipo</t>
+          <t>Tim Hardaway Jr.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -8724,17 +8724,17 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -8754,17 +8754,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.9</t>
         </is>
       </c>
     </row>
@@ -8774,12 +8774,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tim Hardaway Jr.</t>
+          <t>Victor Oladipo</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -8789,17 +8789,17 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -8819,17 +8819,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -8969,32 +8969,32 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Garrett Temple</t>
+          <t>Jabari Parker</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>37</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9014,17 +9014,17 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -9034,32 +9034,32 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Jabari Parker</t>
+          <t>Garrett Temple</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -9079,17 +9079,17 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>-0.7</t>
         </is>
       </c>
     </row>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Marcus Morris Sr.</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -9704,12 +9704,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -9734,12 +9734,12 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>-2.2</t>
+          <t>-1.8</t>
         </is>
       </c>
     </row>
@@ -9749,7 +9749,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Marcus Morris Sr.</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -9769,12 +9769,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -9799,12 +9799,12 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>-1.8</t>
+          <t>-2.2</t>
         </is>
       </c>
     </row>
@@ -10529,32 +10529,32 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Landry Shamet</t>
+          <t>Damion Lee</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -10564,7 +10564,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10574,17 +10574,17 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>7.3</t>
         </is>
       </c>
     </row>
@@ -10659,32 +10659,32 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Damion Lee</t>
+          <t>Landry Shamet</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -10694,7 +10694,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10704,17 +10704,17 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
@@ -11309,32 +11309,32 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Frank Kaminsky</t>
+          <t>Tony Snell</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -11344,7 +11344,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11354,17 +11354,17 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -11374,32 +11374,32 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tony Snell</t>
+          <t>Frank Kaminsky</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>38</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -11409,7 +11409,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11419,17 +11419,17 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
@@ -11569,32 +11569,32 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cedi Osman</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -11614,17 +11614,17 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.3</t>
         </is>
       </c>
     </row>
@@ -11634,17 +11634,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Luke Kennard</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -11654,12 +11654,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11679,17 +11679,17 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -11699,32 +11699,32 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Luke Kennard</t>
+          <t>Cedi Osman</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -11734,7 +11734,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11744,17 +11744,17 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -12544,17 +12544,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Lou Williams</t>
+          <t>Gary Harris</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -12564,12 +12564,12 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -12589,17 +12589,17 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>-0.8</t>
         </is>
       </c>
     </row>
@@ -12609,17 +12609,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Gary Harris</t>
+          <t>Lou Williams</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -12629,12 +12629,12 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -12654,17 +12654,17 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -13064,17 +13064,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Tomas Satoransky</t>
+          <t>Derrick Rose</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -13084,12 +13084,12 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -13099,7 +13099,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -13109,17 +13109,17 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>-0.6</t>
         </is>
       </c>
     </row>
@@ -13129,17 +13129,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Derrick Rose</t>
+          <t>Tomas Satoransky</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -13149,12 +13149,12 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -13164,7 +13164,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -13174,17 +13174,17 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -13909,32 +13909,32 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Dewayne Dedmon</t>
+          <t>Al-Farouq Aminu</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -13944,7 +13944,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -13954,17 +13954,17 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -13974,32 +13974,32 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Al-Farouq Aminu</t>
+          <t>Dewayne Dedmon</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -14009,7 +14009,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -14019,17 +14019,17 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-3.8</t>
         </is>
       </c>
     </row>
@@ -14624,32 +14624,32 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Jaxson Hayes</t>
+          <t>Rodney Hood</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -14659,7 +14659,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -14669,12 +14669,12 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
@@ -14689,32 +14689,32 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Rodney Hood</t>
+          <t>Jaxson Hayes</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -14724,7 +14724,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -14734,12 +14734,12 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
@@ -14819,32 +14819,32 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Alec Burks</t>
+          <t>Jeff Green</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -14864,17 +14864,17 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -14884,32 +14884,32 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Jeff Green</t>
+          <t>Alec Burks</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>66</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -14929,17 +14929,17 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.3</t>
         </is>
       </c>
     </row>
@@ -15079,22 +15079,22 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Nicolas Batum</t>
+          <t>Isaiah Hartenstein</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -15114,7 +15114,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -15124,17 +15124,17 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -15144,22 +15144,22 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Isaiah Hartenstein</t>
+          <t>Nicolas Batum</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -15179,7 +15179,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -15189,17 +15189,17 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -15404,12 +15404,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Kelly Olynyk</t>
+          <t>John Henson</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -15424,12 +15424,12 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -15439,7 +15439,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -15449,17 +15449,17 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>-0.3</t>
         </is>
       </c>
     </row>
@@ -15469,12 +15469,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>John Henson</t>
+          <t>Kelly Olynyk</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -15489,12 +15489,12 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -15504,7 +15504,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -15514,17 +15514,17 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>2.3</t>
         </is>
       </c>
     </row>
@@ -16379,17 +16379,17 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Wesley Matthews</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -16399,12 +16399,12 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -16414,7 +16414,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -16424,17 +16424,17 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>39.7</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>-5.6</t>
         </is>
       </c>
     </row>
@@ -16444,17 +16444,17 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Wesley Matthews</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -16464,12 +16464,12 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -16479,7 +16479,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -16489,17 +16489,17 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>39.7</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>-5.6</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
@@ -16639,7 +16639,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Eric Gordon</t>
+          <t>Austin Rivers</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -16649,7 +16649,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -16659,12 +16659,12 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>66</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -16674,7 +16674,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -16684,17 +16684,17 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>-7.5</t>
+          <t>1.3</t>
         </is>
       </c>
     </row>
@@ -16704,32 +16704,32 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Juan Toscano-Anderson</t>
+          <t>Eric Gordon</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -16739,7 +16739,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -16749,17 +16749,17 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>-8.1</t>
+          <t>-7.5</t>
         </is>
       </c>
     </row>
@@ -16769,12 +16769,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Austin Rivers</t>
+          <t>Juan Toscano-Anderson</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -16784,17 +16784,17 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -16814,17 +16814,17 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>-8.1</t>
         </is>
       </c>
     </row>
@@ -17354,32 +17354,32 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Bol Bol</t>
+          <t>Devontae Cacok</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -17389,7 +17389,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -17399,17 +17399,17 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>17.4</t>
         </is>
       </c>
     </row>
@@ -17419,32 +17419,32 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Devontae Cacok</t>
+          <t>Bol Bol</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -17454,7 +17454,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -17464,17 +17464,17 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>17.4</t>
+          <t>6.3</t>
         </is>
       </c>
     </row>
@@ -17484,32 +17484,32 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Eric Mika</t>
+          <t>Nic Claxton</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -17519,7 +17519,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -17529,17 +17529,17 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>-2.5</t>
         </is>
       </c>
     </row>
@@ -17549,32 +17549,32 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
+          <t>Eric Mika</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -17584,7 +17584,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -17594,17 +17594,17 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>17.7</t>
         </is>
       </c>
     </row>
@@ -18069,17 +18069,17 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Seth Curry</t>
+          <t>Talen Horton-Tucker</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -18089,12 +18089,12 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -18104,7 +18104,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -18114,17 +18114,17 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>2.3</t>
         </is>
       </c>
     </row>
@@ -18134,17 +18134,17 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Talen Horton-Tucker</t>
+          <t>Seth Curry</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -18154,12 +18154,12 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -18169,7 +18169,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -18179,17 +18179,17 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>3.6</t>
         </is>
       </c>
     </row>
@@ -18199,17 +18199,17 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>De'Anthony Melton</t>
+          <t>D.J. Augustin</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -18219,12 +18219,12 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -18234,7 +18234,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -18244,17 +18244,17 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>-1.4</t>
         </is>
       </c>
     </row>
@@ -18264,17 +18264,17 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>D.J. Augustin</t>
+          <t>De'Anthony Melton</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -18284,12 +18284,12 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -18299,7 +18299,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -18309,17 +18309,17 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -18979,32 +18979,32 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Cristiano Felicio</t>
+          <t>Matisse Thybulle</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>64</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -19014,7 +19014,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -19024,17 +19024,17 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>-3.1</t>
         </is>
       </c>
     </row>
@@ -19044,32 +19044,32 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Matisse Thybulle</t>
+          <t>Cristiano Felicio</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -19079,7 +19079,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -19089,17 +19089,17 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>9.4</t>
         </is>
       </c>
     </row>
@@ -20734,32 +20734,32 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>JJ Redick</t>
+          <t>Josh Jackson</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
@@ -20769,7 +20769,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -20779,17 +20779,17 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>3.3</t>
         </is>
       </c>
     </row>
@@ -20799,32 +20799,32 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Josh Jackson</t>
+          <t>JJ Redick</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -20834,7 +20834,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -20844,17 +20844,17 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>6.4</t>
         </is>
       </c>
     </row>
@@ -20994,32 +20994,32 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Sindarius Thornwell</t>
+          <t>Norvel Pelle</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -21029,7 +21029,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -21039,17 +21039,17 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>5.2</t>
         </is>
       </c>
     </row>
@@ -21059,32 +21059,32 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Joakim Noah</t>
+          <t>Sindarius Thornwell</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -21094,7 +21094,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -21104,17 +21104,17 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>-4.4</t>
+          <t>-1.5</t>
         </is>
       </c>
     </row>
@@ -21124,32 +21124,32 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Norvel Pelle</t>
+          <t>Joakim Noah</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -21159,7 +21159,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -21169,17 +21169,17 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>-4.4</t>
         </is>
       </c>
     </row>
@@ -22944,32 +22944,32 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Shaquille Harrison</t>
+          <t>Svi Mykhailiuk</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
@@ -22979,7 +22979,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -22989,17 +22989,17 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>-1.7</t>
+          <t>6.5</t>
         </is>
       </c>
     </row>
@@ -23009,32 +23009,32 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Svi Mykhailiuk</t>
+          <t>Shaquille Harrison</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
@@ -23044,7 +23044,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -23054,17 +23054,17 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>-1.7</t>
         </is>
       </c>
     </row>
@@ -23529,32 +23529,32 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Joe Chealey</t>
+          <t>Caleb Swanigan</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="F357" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
@@ -23579,12 +23579,12 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>40.2</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
@@ -23659,32 +23659,32 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Caleb Swanigan</t>
+          <t>Joe Chealey</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
@@ -23709,12 +23709,12 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>40.2</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>9.8</t>
         </is>
       </c>
     </row>
@@ -24699,32 +24699,32 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Rodney McGruder</t>
+          <t>Abdel Nader</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
@@ -24734,7 +24734,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -24744,17 +24744,17 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>40.9</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-3.4</t>
         </is>
       </c>
     </row>
@@ -24764,32 +24764,32 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Abdel Nader</t>
+          <t>Rodney McGruder</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
@@ -24799,7 +24799,7 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -24809,17 +24809,17 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>40.9</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -25414,32 +25414,32 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>DaQuan Jeffries</t>
+          <t>Jeremy Pargo</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
@@ -25449,7 +25449,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -25459,17 +25459,17 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>41.8</t>
+          <t>63.6</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>-2.2</t>
+          <t>20.8</t>
         </is>
       </c>
     </row>
@@ -25544,32 +25544,32 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Jeremy Pargo</t>
+          <t>DaQuan Jeffries</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
@@ -25579,7 +25579,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -25589,17 +25589,17 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>63.6</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>20.8</t>
+          <t>-2.2</t>
         </is>
       </c>
     </row>
@@ -25804,32 +25804,32 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Ty Jerome</t>
+          <t>Chris Silva</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
@@ -25839,7 +25839,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -25849,17 +25849,17 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>55.7</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>7.7</t>
         </is>
       </c>
     </row>
@@ -25869,32 +25869,32 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Chris Silva</t>
+          <t>Ty Jerome</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
@@ -25904,7 +25904,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -25914,17 +25914,17 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>9.5</t>
         </is>
       </c>
     </row>
@@ -25999,32 +25999,32 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Goga Bitadze</t>
+          <t>Jeremiah Martin</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
@@ -26034,27 +26034,27 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>46.5</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>44.3</t>
+        </is>
+      </c>
+      <c r="M395" t="inlineStr">
+        <is>
           <t>2.2</t>
-        </is>
-      </c>
-      <c r="J395" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>41.1</t>
-        </is>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>46.5</t>
-        </is>
-      </c>
-      <c r="M395" t="inlineStr">
-        <is>
-          <t>-5.5</t>
         </is>
       </c>
     </row>
@@ -26064,32 +26064,32 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Jeremiah Martin</t>
+          <t>Goga Bitadze</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
@@ -26099,7 +26099,7 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -26109,17 +26109,17 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
+          <t>41.1</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
           <t>46.5</t>
         </is>
       </c>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>44.3</t>
-        </is>
-      </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>-5.5</t>
         </is>
       </c>
     </row>
@@ -26129,32 +26129,32 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>DeMarre Carroll</t>
+          <t>Emmanuel Mudiay</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
@@ -26164,7 +26164,7 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -26174,17 +26174,17 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>40.7</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="M397" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -26194,32 +26194,32 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Emmanuel Mudiay</t>
+          <t>Elie Okobo</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
@@ -26229,7 +26229,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -26239,17 +26239,17 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>7.7</t>
         </is>
       </c>
     </row>
@@ -26259,32 +26259,32 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Elie Okobo</t>
+          <t>DeMarre Carroll</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
@@ -26294,7 +26294,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -26304,17 +26304,17 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>40.7</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>-3.2</t>
         </is>
       </c>
     </row>
@@ -26584,17 +26584,17 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Courtney Lee</t>
+          <t>Quinn Cook</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -26604,12 +26604,12 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
@@ -26619,7 +26619,7 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -26629,7 +26629,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -26639,7 +26639,7 @@
       </c>
       <c r="M404" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.6</t>
         </is>
       </c>
     </row>
@@ -26649,17 +26649,17 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Quinn Cook</t>
+          <t>Courtney Lee</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -26669,12 +26669,12 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
@@ -26684,7 +26684,7 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -26694,7 +26694,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -26704,7 +26704,7 @@
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -26844,32 +26844,32 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Michael Kidd-Gilchrist</t>
+          <t>Jerian Grant</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
@@ -26879,7 +26879,7 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -26889,17 +26889,17 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>16.0</t>
         </is>
       </c>
     </row>
@@ -26909,32 +26909,32 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Jerian Grant</t>
+          <t>Michael Kidd-Gilchrist</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
@@ -26944,7 +26944,7 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -26954,17 +26954,17 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="M409" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>-1.6</t>
         </is>
       </c>
     </row>
@@ -27234,32 +27234,32 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Zach Norvell Jr.</t>
+          <t>Michael Frazier II</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
@@ -27269,7 +27269,7 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -27279,17 +27279,17 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>61.8</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>28.7</t>
+          <t>17.5</t>
         </is>
       </c>
     </row>
@@ -27299,17 +27299,17 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Udonis Haslem</t>
+          <t>Stanton Kidd</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -27319,12 +27319,12 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
@@ -27334,7 +27334,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -27344,17 +27344,17 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>40.2</t>
         </is>
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>-20.2</t>
         </is>
       </c>
     </row>
@@ -27364,17 +27364,17 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Stanton Kidd</t>
+          <t>Udonis Haslem</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -27384,12 +27384,12 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
@@ -27399,7 +27399,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -27409,17 +27409,17 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>40.2</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>-20.2</t>
+          <t>15.1</t>
         </is>
       </c>
     </row>
@@ -27429,17 +27429,17 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Terance Mann</t>
+          <t>Zach Norvell Jr.</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -27449,12 +27449,12 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
@@ -27464,7 +27464,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -27474,17 +27474,17 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="M417" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>28.7</t>
         </is>
       </c>
     </row>
@@ -27494,32 +27494,32 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Michael Frazier II</t>
+          <t>Terance Mann</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
@@ -27529,7 +27529,7 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -27539,17 +27539,17 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>61.8</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>17.5</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
@@ -28339,17 +28339,17 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Louis King</t>
+          <t>Georges Niang</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -28359,12 +28359,12 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
@@ -28374,7 +28374,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -28384,17 +28384,17 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>6.7</t>
         </is>
       </c>
     </row>
@@ -28404,17 +28404,17 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Georges Niang</t>
+          <t>Louis King</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -28424,12 +28424,12 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
@@ -28439,7 +28439,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -28449,17 +28449,17 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
@@ -28859,32 +28859,32 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Josh Gray</t>
+          <t>Justin James</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
@@ -28894,7 +28894,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -28904,17 +28904,17 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="M439" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>-5.9</t>
         </is>
       </c>
     </row>
@@ -28924,32 +28924,32 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Justin James</t>
+          <t>Josh Gray</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
@@ -28959,7 +28959,7 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -28969,17 +28969,17 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>42.6</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="M440" t="inlineStr">
         <is>
-          <t>-5.9</t>
+          <t>1.1</t>
         </is>
       </c>
     </row>
@@ -28989,22 +28989,22 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Dzanan Musa</t>
+          <t>Jared Dudley</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -29024,7 +29024,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -29034,17 +29034,17 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>40.6</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M441" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>-1.2</t>
         </is>
       </c>
     </row>
@@ -29054,22 +29054,22 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Jared Dudley</t>
+          <t>Dzanan Musa</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -29089,7 +29089,7 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -29099,17 +29099,17 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>40.6</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="M442" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>-3.8</t>
         </is>
       </c>
     </row>
@@ -29899,32 +29899,32 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Tacko Fall</t>
+          <t>Deonte Burton</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
@@ -29949,12 +29949,12 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>5.2</t>
         </is>
       </c>
     </row>
@@ -29964,22 +29964,22 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Jalen Lecque</t>
+          <t>Luc Mbah a Moute</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -29999,7 +29999,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -30009,17 +30009,17 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>41.8</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M456" t="inlineStr">
         <is>
-          <t>-8.5</t>
+          <t>12.6</t>
         </is>
       </c>
     </row>
@@ -30029,17 +30029,17 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Justin Wright-Foreman</t>
+          <t>Jalen Lecque</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -30064,7 +30064,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -30074,17 +30074,17 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="M457" t="inlineStr">
         <is>
-          <t>23.3</t>
+          <t>-8.5</t>
         </is>
       </c>
     </row>
@@ -30094,32 +30094,32 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Luc Mbah a Moute</t>
+          <t>Kyle Alexander</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
@@ -30129,7 +30129,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -30139,17 +30139,17 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="M458" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>7.1</t>
         </is>
       </c>
     </row>
@@ -30159,32 +30159,32 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Kyle Alexander</t>
+          <t>Tacko Fall</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
@@ -30209,12 +30209,12 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="M459" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
@@ -30224,32 +30224,32 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Deonte Burton</t>
+          <t>Justin Wright-Foreman</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
@@ -30259,7 +30259,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -30269,17 +30269,17 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="M460" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>23.3</t>
         </is>
       </c>
     </row>
@@ -30679,17 +30679,17 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Adam Mokoka</t>
+          <t>Paul Watson</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -30699,12 +30699,12 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H467" t="inlineStr">
@@ -30714,7 +30714,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -30724,17 +30724,17 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="M467" t="inlineStr">
         <is>
-          <t>-4.5</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
@@ -30744,17 +30744,17 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Paul Watson</t>
+          <t>Adam Mokoka</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -30764,12 +30764,12 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
@@ -30779,7 +30779,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -30789,17 +30789,17 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>39.5</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="M468" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>-4.5</t>
         </is>
       </c>
     </row>
@@ -30939,17 +30939,17 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Chasson Randle</t>
+          <t>Tyrone Wallace</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -30959,12 +30959,12 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H471" t="inlineStr">
@@ -30974,7 +30974,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -30984,17 +30984,17 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>72.7</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="M471" t="inlineStr">
         <is>
-          <t>24.9</t>
+          <t>3.8</t>
         </is>
       </c>
     </row>
@@ -31004,17 +31004,17 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Tyrone Wallace</t>
+          <t>Chasson Randle</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
@@ -31024,12 +31024,12 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H472" t="inlineStr">
@@ -31039,7 +31039,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -31049,17 +31049,17 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>72.7</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="M472" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>24.9</t>
         </is>
       </c>
     </row>
@@ -31914,32 +31914,32 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Moses Brown</t>
+          <t>Tyler Zeller</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
@@ -31949,7 +31949,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
@@ -31959,17 +31959,17 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="M486" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>-13.9</t>
         </is>
       </c>
     </row>
@@ -31979,32 +31979,32 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Tyler Zeller</t>
+          <t>Johnathan Motley</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H487" t="inlineStr">
@@ -32014,7 +32014,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
@@ -32024,17 +32024,17 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="M487" t="inlineStr">
         <is>
-          <t>-13.9</t>
+          <t>-1.1</t>
         </is>
       </c>
     </row>
@@ -32044,22 +32044,22 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Johnathan Motley</t>
+          <t>Moses Brown</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
@@ -32079,7 +32079,7 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
@@ -32089,17 +32089,17 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="M488" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>12.2</t>
         </is>
       </c>
     </row>
@@ -33149,32 +33149,32 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Yuta Watanabe</t>
+          <t>Charlie Brown Jr.</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H505" t="inlineStr">
@@ -33184,7 +33184,7 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
@@ -33194,17 +33194,17 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="M505" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>3.3</t>
         </is>
       </c>
     </row>
@@ -33214,32 +33214,32 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Charlie Brown Jr.</t>
+          <t>Yuta Watanabe</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H506" t="inlineStr">
@@ -33249,7 +33249,7 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
@@ -33259,17 +33259,17 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="M506" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>7.3</t>
         </is>
       </c>
     </row>
@@ -33409,22 +33409,22 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Khyri Thomas</t>
+          <t>Dewan Hernandez</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
@@ -33444,7 +33444,7 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
@@ -33454,17 +33454,17 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M509" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>-10.7</t>
         </is>
       </c>
     </row>
@@ -33539,22 +33539,22 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Dewan Hernandez</t>
+          <t>Khyri Thomas</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
@@ -33574,7 +33574,7 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
@@ -33584,17 +33584,17 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M511" t="inlineStr">
         <is>
-          <t>-10.7</t>
+          <t>10.2</t>
         </is>
       </c>
     </row>
@@ -34124,12 +34124,12 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Kyle Guy</t>
+          <t>Isaiah Roby</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -34139,17 +34139,17 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H520" t="inlineStr">
@@ -34159,7 +34159,7 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
@@ -34169,17 +34169,17 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M520" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>-11.7</t>
         </is>
       </c>
     </row>
@@ -34254,12 +34254,12 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Isaiah Roby</t>
+          <t>Kyle Guy</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -34269,17 +34269,17 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
@@ -34289,7 +34289,7 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
@@ -34299,17 +34299,17 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M522" t="inlineStr">
         <is>
-          <t>-11.7</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -34319,32 +34319,32 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Ryan Anderson</t>
+          <t>Brian Bowen II</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
@@ -34354,7 +34354,7 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
@@ -34364,17 +34364,17 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M523" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>-6.4</t>
         </is>
       </c>
     </row>
@@ -34384,32 +34384,32 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Brian Bowen II</t>
+          <t>Ryan Anderson</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H524" t="inlineStr">
@@ -34419,7 +34419,7 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
@@ -34429,17 +34429,17 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M524" t="inlineStr">
         <is>
-          <t>-6.4</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -34644,22 +34644,22 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Marques Bolden</t>
+          <t>Jamal Crawford</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
@@ -34679,7 +34679,7 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
@@ -34689,17 +34689,17 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="M528" t="inlineStr">
         <is>
-          <t>-36.7</t>
+          <t>56.9</t>
         </is>
       </c>
     </row>
@@ -34709,22 +34709,22 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Jamal Crawford</t>
+          <t>Marques Bolden</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
@@ -34744,27 +34744,27 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J529" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J529" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="M529" t="inlineStr">
         <is>
-          <t>56.9</t>
+          <t>-36.7</t>
         </is>
       </c>
     </row>
